--- a/data/pca/factorExposure/factorExposure_2009-01-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-06.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01938096077861392</v>
+        <v>-0.01795658838759833</v>
       </c>
       <c r="C2">
-        <v>-0.008427692338414967</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.0109046439052051</v>
+      </c>
+      <c r="D2">
+        <v>-0.01227196521277346</v>
+      </c>
+      <c r="E2">
+        <v>-0.01559541994554172</v>
+      </c>
+      <c r="F2">
+        <v>0.009061490009771274</v>
+      </c>
+      <c r="G2">
+        <v>0.01817460875028384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.08041871227766291</v>
+        <v>-0.08333346018704639</v>
       </c>
       <c r="C4">
-        <v>-0.08471846096668519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08771409604355263</v>
+      </c>
+      <c r="D4">
+        <v>0.06147488705260418</v>
+      </c>
+      <c r="E4">
+        <v>-0.02705023909721551</v>
+      </c>
+      <c r="F4">
+        <v>0.02805190376697525</v>
+      </c>
+      <c r="G4">
+        <v>0.0270484914687078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003948265355806514</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.001173309818070231</v>
+      </c>
+      <c r="D5">
+        <v>0.0007460140675803887</v>
+      </c>
+      <c r="E5">
+        <v>0.004524413689713793</v>
+      </c>
+      <c r="F5">
+        <v>0.00155428666602523</v>
+      </c>
+      <c r="G5">
+        <v>-0.005813229084016495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1695187862477287</v>
+        <v>-0.1708950519787496</v>
       </c>
       <c r="C6">
-        <v>0.0221736696714388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.01158651556168589</v>
+      </c>
+      <c r="D6">
+        <v>0.05845189619911245</v>
+      </c>
+      <c r="E6">
+        <v>0.06459191769452204</v>
+      </c>
+      <c r="F6">
+        <v>0.01366949325808884</v>
+      </c>
+      <c r="G6">
+        <v>-0.02369128510880069</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05414521743700787</v>
+        <v>-0.05585029862550626</v>
       </c>
       <c r="C7">
-        <v>-0.05755353205702532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.06289433171903351</v>
+      </c>
+      <c r="D7">
+        <v>0.07130266104708786</v>
+      </c>
+      <c r="E7">
+        <v>-0.0679034722418415</v>
+      </c>
+      <c r="F7">
+        <v>0.009464843067210038</v>
+      </c>
+      <c r="G7">
+        <v>0.07426040570126438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05233989659319754</v>
+        <v>-0.04980664878190269</v>
       </c>
       <c r="C8">
-        <v>-0.05622695793744312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.0552520051764844</v>
+      </c>
+      <c r="D8">
+        <v>-0.01457418656448437</v>
+      </c>
+      <c r="E8">
+        <v>-0.04265057710284414</v>
+      </c>
+      <c r="F8">
+        <v>-0.000966973400500082</v>
+      </c>
+      <c r="G8">
+        <v>0.002106907867244444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05779782792124152</v>
+        <v>-0.06235342869315612</v>
       </c>
       <c r="C9">
-        <v>-0.09196769582650084</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.0930981754466802</v>
+      </c>
+      <c r="D9">
+        <v>0.09090504304347062</v>
+      </c>
+      <c r="E9">
+        <v>-0.05070810590518163</v>
+      </c>
+      <c r="F9">
+        <v>0.01778701591690097</v>
+      </c>
+      <c r="G9">
+        <v>0.002408465725879955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1145951099371163</v>
+        <v>-0.1016829608745299</v>
       </c>
       <c r="C10">
-        <v>0.1472502877712504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.136925259366146</v>
+      </c>
+      <c r="D10">
+        <v>-0.09418433125511336</v>
+      </c>
+      <c r="E10">
+        <v>-0.05520229847692755</v>
+      </c>
+      <c r="F10">
+        <v>-0.01750802681779169</v>
+      </c>
+      <c r="G10">
+        <v>-0.009857377861861055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07855100597239696</v>
+        <v>-0.07603696774826076</v>
       </c>
       <c r="C11">
-        <v>-0.1317403574482475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1308493895895967</v>
+      </c>
+      <c r="D11">
+        <v>0.04839902670091084</v>
+      </c>
+      <c r="E11">
+        <v>-0.07420085471807468</v>
+      </c>
+      <c r="F11">
+        <v>0.01594199426653784</v>
+      </c>
+      <c r="G11">
+        <v>-0.004744712186035958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.08011297898138635</v>
+        <v>-0.07655087713583511</v>
       </c>
       <c r="C12">
-        <v>-0.1581479018229229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.1551797302496753</v>
+      </c>
+      <c r="D12">
+        <v>0.05545624086698746</v>
+      </c>
+      <c r="E12">
+        <v>-0.07942474637817636</v>
+      </c>
+      <c r="F12">
+        <v>0.009731846774651909</v>
+      </c>
+      <c r="G12">
+        <v>0.02139524537178115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.04029471429454078</v>
+        <v>-0.0420644112176471</v>
       </c>
       <c r="C13">
-        <v>-0.06740502891896841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07231927169648054</v>
+      </c>
+      <c r="D13">
+        <v>0.03578431301391431</v>
+      </c>
+      <c r="E13">
+        <v>-0.07691253465970517</v>
+      </c>
+      <c r="F13">
+        <v>0.01038828555032919</v>
+      </c>
+      <c r="G13">
+        <v>0.03019743503988149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02054080129154592</v>
+        <v>-0.02305668310816646</v>
       </c>
       <c r="C14">
-        <v>-0.04780813993883153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.04893278749809584</v>
+      </c>
+      <c r="D14">
+        <v>0.04351001185569111</v>
+      </c>
+      <c r="E14">
+        <v>-0.07160970755601392</v>
+      </c>
+      <c r="F14">
+        <v>0.01209359859754671</v>
+      </c>
+      <c r="G14">
+        <v>-0.01075348558811128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03268476181883268</v>
+        <v>-0.03307191093817383</v>
       </c>
       <c r="C15">
-        <v>-0.06073094657004145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.05898637207134493</v>
+      </c>
+      <c r="D15">
+        <v>0.04550405323092015</v>
+      </c>
+      <c r="E15">
+        <v>-0.03067682142681187</v>
+      </c>
+      <c r="F15">
+        <v>-0.01734392823107915</v>
+      </c>
+      <c r="G15">
+        <v>0.01254095916151544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05756641403897753</v>
+        <v>-0.05614870018838956</v>
       </c>
       <c r="C16">
-        <v>-0.1536473399166987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.1524069139921728</v>
+      </c>
+      <c r="D16">
+        <v>0.05108864890936527</v>
+      </c>
+      <c r="E16">
+        <v>-0.06236383960080642</v>
+      </c>
+      <c r="F16">
+        <v>0.03282335906350041</v>
+      </c>
+      <c r="G16">
+        <v>-0.01470448790293852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.006671754918180828</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.003990924214617832</v>
+      </c>
+      <c r="D17">
+        <v>-0.001824810720882715</v>
+      </c>
+      <c r="E17">
+        <v>0.008537029319756114</v>
+      </c>
+      <c r="F17">
+        <v>-0.01005980523388554</v>
+      </c>
+      <c r="G17">
+        <v>-0.008509306395215847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.04310741546611708</v>
+        <v>-0.05348435449467941</v>
       </c>
       <c r="C18">
-        <v>-0.0518425141076949</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.04683777524129194</v>
+      </c>
+      <c r="D18">
+        <v>-0.005809601451548236</v>
+      </c>
+      <c r="E18">
+        <v>0.05433309008485354</v>
+      </c>
+      <c r="F18">
+        <v>-0.01133399592772987</v>
+      </c>
+      <c r="G18">
+        <v>-0.01412236470415529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05658392943981574</v>
+        <v>-0.05581429018838346</v>
       </c>
       <c r="C20">
-        <v>-0.1002510371338756</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.09875716232561242</v>
+      </c>
+      <c r="D20">
+        <v>0.07223440005012162</v>
+      </c>
+      <c r="E20">
+        <v>-0.06501336608880785</v>
+      </c>
+      <c r="F20">
+        <v>0.008851185526152452</v>
+      </c>
+      <c r="G20">
+        <v>0.004891843343906547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04356196376153464</v>
+        <v>-0.04528046768845263</v>
       </c>
       <c r="C21">
-        <v>-0.06255752167224535</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.05995862975606989</v>
+      </c>
+      <c r="D21">
+        <v>0.01774074479077286</v>
+      </c>
+      <c r="E21">
+        <v>-0.0663940432221608</v>
+      </c>
+      <c r="F21">
+        <v>0.01320472414195632</v>
+      </c>
+      <c r="G21">
+        <v>0.02343461553305126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0442701336106671</v>
+        <v>-0.04438264700715273</v>
       </c>
       <c r="C22">
-        <v>-0.0340540192225568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03808583810366102</v>
+      </c>
+      <c r="D22">
+        <v>-0.1031329920567811</v>
+      </c>
+      <c r="E22">
+        <v>0.05522640409213492</v>
+      </c>
+      <c r="F22">
+        <v>0.08473387433207767</v>
+      </c>
+      <c r="G22">
+        <v>-0.1177892315181044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04427968789121308</v>
+        <v>-0.04439102617126203</v>
       </c>
       <c r="C23">
-        <v>-0.03404752213991082</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0380801701541857</v>
+      </c>
+      <c r="D23">
+        <v>-0.1031738521067686</v>
+      </c>
+      <c r="E23">
+        <v>0.05522374524285363</v>
+      </c>
+      <c r="F23">
+        <v>0.08473154053888733</v>
+      </c>
+      <c r="G23">
+        <v>-0.1178528258595444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06533666014961031</v>
+        <v>-0.06399681863598135</v>
       </c>
       <c r="C24">
-        <v>-0.1409448073088326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.1375388150828269</v>
+      </c>
+      <c r="D24">
+        <v>0.05750077536180315</v>
+      </c>
+      <c r="E24">
+        <v>-0.06652704048280667</v>
+      </c>
+      <c r="F24">
+        <v>0.02127144422868318</v>
+      </c>
+      <c r="G24">
+        <v>0.004823138167961811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07117238878369427</v>
+        <v>-0.06903634143437952</v>
       </c>
       <c r="C25">
-        <v>-0.1226685469424714</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.1210922828175932</v>
+      </c>
+      <c r="D25">
+        <v>0.04464529618931162</v>
+      </c>
+      <c r="E25">
+        <v>-0.0957103626127415</v>
+      </c>
+      <c r="F25">
+        <v>-0.004488744055493487</v>
+      </c>
+      <c r="G25">
+        <v>0.03407653465221573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05584971715177205</v>
+        <v>-0.05992871917398537</v>
       </c>
       <c r="C26">
-        <v>-0.07005285990318895</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.07249607864919981</v>
+      </c>
+      <c r="D26">
+        <v>0.01918535482602834</v>
+      </c>
+      <c r="E26">
+        <v>-0.07992181413224619</v>
+      </c>
+      <c r="F26">
+        <v>-0.001519255935288276</v>
+      </c>
+      <c r="G26">
+        <v>0.0172812449202707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1714473155482416</v>
+        <v>-0.1754411085485241</v>
       </c>
       <c r="C28">
-        <v>0.2313949479232298</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.2309233974814981</v>
+      </c>
+      <c r="D28">
+        <v>0.003681316471060184</v>
+      </c>
+      <c r="E28">
+        <v>-0.1543204647511327</v>
+      </c>
+      <c r="F28">
+        <v>-0.02187614290012756</v>
+      </c>
+      <c r="G28">
+        <v>0.02631038239788266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02513711154111449</v>
+        <v>-0.02697657174057221</v>
       </c>
       <c r="C29">
-        <v>-0.05498838008642346</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.05296140210753118</v>
+      </c>
+      <c r="D29">
+        <v>0.009888852444067769</v>
+      </c>
+      <c r="E29">
+        <v>-0.06923604681610039</v>
+      </c>
+      <c r="F29">
+        <v>0.01214713270498742</v>
+      </c>
+      <c r="G29">
+        <v>-0.007103579579993829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03587046436325751</v>
+        <v>-0.03784257607620873</v>
       </c>
       <c r="C30">
-        <v>-0.06916142530657626</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.07569920943538369</v>
+      </c>
+      <c r="D30">
+        <v>0.1432720026126504</v>
+      </c>
+      <c r="E30">
+        <v>-0.07581400607731603</v>
+      </c>
+      <c r="F30">
+        <v>-0.03071973198950534</v>
+      </c>
+      <c r="G30">
+        <v>0.03961811783446111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0527112390257469</v>
+        <v>-0.05180058202739147</v>
       </c>
       <c r="C31">
-        <v>-0.03675772150277795</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.03892135828735235</v>
+      </c>
+      <c r="D31">
+        <v>0.001497425426631585</v>
+      </c>
+      <c r="E31">
+        <v>-0.008432932223894405</v>
+      </c>
+      <c r="F31">
+        <v>0.04524107228015145</v>
+      </c>
+      <c r="G31">
+        <v>-0.01536578625159405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04195833688881779</v>
+        <v>-0.04551490372040379</v>
       </c>
       <c r="C32">
-        <v>-0.05590543497759144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.05405461897760527</v>
+      </c>
+      <c r="D32">
+        <v>0.01209222966651527</v>
+      </c>
+      <c r="E32">
+        <v>-0.003901702829744373</v>
+      </c>
+      <c r="F32">
+        <v>-0.01659385806646679</v>
+      </c>
+      <c r="G32">
+        <v>0.01102693460594244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07714982285210702</v>
+        <v>-0.08134344549000259</v>
       </c>
       <c r="C33">
-        <v>-0.1159389275934503</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.1248571760837251</v>
+      </c>
+      <c r="D33">
+        <v>0.07559996505794057</v>
+      </c>
+      <c r="E33">
+        <v>-0.06023802574805058</v>
+      </c>
+      <c r="F33">
+        <v>0.02953378386495212</v>
+      </c>
+      <c r="G33">
+        <v>-0.01886564679365199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05442339535415703</v>
+        <v>-0.05350932136470561</v>
       </c>
       <c r="C34">
-        <v>-0.1256776851906248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.125326445967568</v>
+      </c>
+      <c r="D34">
+        <v>0.08395291728778559</v>
+      </c>
+      <c r="E34">
+        <v>-0.08209843490726204</v>
+      </c>
+      <c r="F34">
+        <v>-0.002468047714618509</v>
+      </c>
+      <c r="G34">
+        <v>-0.02532957486201852</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02614850923927988</v>
+        <v>-0.02861960685378045</v>
       </c>
       <c r="C35">
-        <v>-0.01850507289742175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.02080314452811523</v>
+      </c>
+      <c r="D35">
+        <v>0.009605761486263562</v>
+      </c>
+      <c r="E35">
+        <v>-0.03138929243260065</v>
+      </c>
+      <c r="F35">
+        <v>-0.01236432357522285</v>
+      </c>
+      <c r="G35">
+        <v>-0.02243274724597745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02546556637900081</v>
+        <v>-0.02757199428116823</v>
       </c>
       <c r="C36">
-        <v>-0.05384015609278812</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05270479819176307</v>
+      </c>
+      <c r="D36">
+        <v>0.05738948151520144</v>
+      </c>
+      <c r="E36">
+        <v>-0.02046099096775848</v>
+      </c>
+      <c r="F36">
+        <v>-0.02780719870514978</v>
+      </c>
+      <c r="G36">
+        <v>-0.08881270165012892</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0005670778544286911</v>
+        <v>-0.004019514380453539</v>
       </c>
       <c r="C37">
-        <v>0.0002711872789187037</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.006999228115640436</v>
+      </c>
+      <c r="D37">
+        <v>0.002042313835611383</v>
+      </c>
+      <c r="E37">
+        <v>-0.00907820480839272</v>
+      </c>
+      <c r="F37">
+        <v>0.005539117063011791</v>
+      </c>
+      <c r="G37">
+        <v>0.003685668372927825</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.07982142620166734</v>
+        <v>-0.07491437425344352</v>
       </c>
       <c r="C39">
-        <v>-0.1530099225725526</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.146524609164081</v>
+      </c>
+      <c r="D39">
+        <v>0.02435450093544074</v>
+      </c>
+      <c r="E39">
+        <v>-0.1228254299311447</v>
+      </c>
+      <c r="F39">
+        <v>0.05548910927248105</v>
+      </c>
+      <c r="G39">
+        <v>0.02832558905896007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04788744519907316</v>
+        <v>-0.05079681575622703</v>
       </c>
       <c r="C40">
-        <v>-0.07122450452683769</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.07684938006812801</v>
+      </c>
+      <c r="D40">
+        <v>0.01042324298473851</v>
+      </c>
+      <c r="E40">
+        <v>-0.05310043492154717</v>
+      </c>
+      <c r="F40">
+        <v>-0.03831973641637414</v>
+      </c>
+      <c r="G40">
+        <v>-0.003937395817363032</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02870174411788528</v>
+        <v>-0.02883282577276559</v>
       </c>
       <c r="C41">
-        <v>-0.02311105583853488</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.02427828418637366</v>
+      </c>
+      <c r="D41">
+        <v>-0.01105940783399658</v>
+      </c>
+      <c r="E41">
+        <v>0.00757739706300019</v>
+      </c>
+      <c r="F41">
+        <v>-0.01552103529856296</v>
+      </c>
+      <c r="G41">
+        <v>-0.003338921299318537</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.0430762493694896</v>
+        <v>-0.04155817983856394</v>
       </c>
       <c r="C43">
-        <v>-0.04051937766407133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.03718925080040025</v>
+      </c>
+      <c r="D43">
+        <v>-0.01490870933825141</v>
+      </c>
+      <c r="E43">
+        <v>-0.01699094132339816</v>
+      </c>
+      <c r="F43">
+        <v>0.02747618368274821</v>
+      </c>
+      <c r="G43">
+        <v>-0.03213253309731255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05805452304831505</v>
+        <v>-0.06213440173643853</v>
       </c>
       <c r="C44">
-        <v>-0.08964968671278535</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.09130453535577572</v>
+      </c>
+      <c r="D44">
+        <v>0.2900050578181397</v>
+      </c>
+      <c r="E44">
+        <v>-0.1180687301230897</v>
+      </c>
+      <c r="F44">
+        <v>-0.06637057029223217</v>
+      </c>
+      <c r="G44">
+        <v>-0.1454087223593834</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.000595230781598781</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.0006614356014014898</v>
+      </c>
+      <c r="D45">
+        <v>-0.0002342783413614349</v>
+      </c>
+      <c r="E45">
+        <v>0.00266966868153987</v>
+      </c>
+      <c r="F45">
+        <v>0.002241955750177626</v>
+      </c>
+      <c r="G45">
+        <v>0.003134655391507786</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02784549989695109</v>
+        <v>-0.02898712565925314</v>
       </c>
       <c r="C46">
-        <v>-0.04154865746829721</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.03955983269058626</v>
+      </c>
+      <c r="D46">
+        <v>0.002829435785107719</v>
+      </c>
+      <c r="E46">
+        <v>-0.057237149256881</v>
+      </c>
+      <c r="F46">
+        <v>0.04977741472629806</v>
+      </c>
+      <c r="G46">
+        <v>-0.008063444128542065</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05574543348939499</v>
+        <v>-0.05351214486913375</v>
       </c>
       <c r="C47">
-        <v>-0.03817391620612284</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.03799433297431812</v>
+      </c>
+      <c r="D47">
+        <v>-0.0376359932758269</v>
+      </c>
+      <c r="E47">
+        <v>0.01879193032692283</v>
+      </c>
+      <c r="F47">
+        <v>0.0572866620162602</v>
+      </c>
+      <c r="G47">
+        <v>-0.0343087763124137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.047130639670825</v>
+        <v>-0.04932895802008568</v>
       </c>
       <c r="C48">
-        <v>-0.06919716496310285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.06915660788340398</v>
+      </c>
+      <c r="D48">
+        <v>0.03003879406418977</v>
+      </c>
+      <c r="E48">
+        <v>-0.0608730706811413</v>
+      </c>
+      <c r="F48">
+        <v>0.01124365003861758</v>
+      </c>
+      <c r="G48">
+        <v>0.03758759673454403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1905985982955494</v>
+        <v>-0.1957593686320983</v>
       </c>
       <c r="C49">
-        <v>0.01619417428513861</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01151047985605922</v>
+      </c>
+      <c r="D49">
+        <v>0.04334352222904707</v>
+      </c>
+      <c r="E49">
+        <v>0.03889721601357222</v>
+      </c>
+      <c r="F49">
+        <v>-0.0292273712988571</v>
+      </c>
+      <c r="G49">
+        <v>0.06901397514208708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05208741085130159</v>
+        <v>-0.05220980467909375</v>
       </c>
       <c r="C50">
-        <v>-0.03525463431718927</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.03783124912165134</v>
+      </c>
+      <c r="D50">
+        <v>0.01659865524167282</v>
+      </c>
+      <c r="E50">
+        <v>-0.001418075257044239</v>
+      </c>
+      <c r="F50">
+        <v>0.03949399275855498</v>
+      </c>
+      <c r="G50">
+        <v>-0.006051776575499287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1416207673727704</v>
+        <v>-0.1364701968328695</v>
       </c>
       <c r="C52">
-        <v>-0.03482078522065559</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.03409248641279467</v>
+      </c>
+      <c r="D52">
+        <v>0.03648088610454847</v>
+      </c>
+      <c r="E52">
+        <v>0.09426601995688691</v>
+      </c>
+      <c r="F52">
+        <v>0.06881583426112939</v>
+      </c>
+      <c r="G52">
+        <v>-0.04336490702107604</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1684227847897549</v>
+        <v>-0.162019668592525</v>
       </c>
       <c r="C53">
-        <v>0.009052409666429912</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.005223598577080431</v>
+      </c>
+      <c r="D53">
+        <v>0.07266763643985741</v>
+      </c>
+      <c r="E53">
+        <v>0.1532275795297954</v>
+      </c>
+      <c r="F53">
+        <v>0.1123295637893543</v>
+      </c>
+      <c r="G53">
+        <v>-0.04218158042517661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01120867574290003</v>
+        <v>-0.01304288286315808</v>
       </c>
       <c r="C54">
-        <v>-0.03753438783776815</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.03771843859087091</v>
+      </c>
+      <c r="D54">
+        <v>0.01229935185861315</v>
+      </c>
+      <c r="E54">
+        <v>-0.04267042839344077</v>
+      </c>
+      <c r="F54">
+        <v>0.01312275974695059</v>
+      </c>
+      <c r="G54">
+        <v>-0.000407409560718672</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1211822909391269</v>
+        <v>-0.1188555497076228</v>
       </c>
       <c r="C55">
-        <v>-0.01213695650679142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01640390384936561</v>
+      </c>
+      <c r="D55">
+        <v>0.04733892779931362</v>
+      </c>
+      <c r="E55">
+        <v>0.07388915768535388</v>
+      </c>
+      <c r="F55">
+        <v>0.1257775640435494</v>
+      </c>
+      <c r="G55">
+        <v>-0.05336464757972861</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1794964223298222</v>
+        <v>-0.1742971590549105</v>
       </c>
       <c r="C56">
-        <v>0.006270578909456334</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.005519015483494705</v>
+      </c>
+      <c r="D56">
+        <v>0.01956326919382305</v>
+      </c>
+      <c r="E56">
+        <v>0.1788254529251116</v>
+      </c>
+      <c r="F56">
+        <v>0.1040729440606916</v>
+      </c>
+      <c r="G56">
+        <v>-0.02768574224322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04311478782326059</v>
+        <v>-0.0423775534888577</v>
       </c>
       <c r="C58">
-        <v>-0.098386369888842</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1082464871371891</v>
+      </c>
+      <c r="D58">
+        <v>-0.004031216456742915</v>
+      </c>
+      <c r="E58">
+        <v>-0.03126084198149048</v>
+      </c>
+      <c r="F58">
+        <v>0.03458293499961324</v>
+      </c>
+      <c r="G58">
+        <v>-0.0003313714759573567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1831203630870067</v>
+        <v>-0.1902057284318057</v>
       </c>
       <c r="C59">
-        <v>0.170903488094603</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1781308700409943</v>
+      </c>
+      <c r="D59">
+        <v>-0.08234296699296904</v>
+      </c>
+      <c r="E59">
+        <v>-0.07551869809523867</v>
+      </c>
+      <c r="F59">
+        <v>0.02667092908489603</v>
+      </c>
+      <c r="G59">
+        <v>0.04285467044397446</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2125386367803915</v>
+        <v>-0.2099984126072571</v>
       </c>
       <c r="C60">
-        <v>-0.006627790470093257</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.01061519178933334</v>
+      </c>
+      <c r="D60">
+        <v>-0.07294068107457029</v>
+      </c>
+      <c r="E60">
+        <v>0.182666241969715</v>
+      </c>
+      <c r="F60">
+        <v>0.02608943530320413</v>
+      </c>
+      <c r="G60">
+        <v>0.1022131295182578</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06227815010310241</v>
+        <v>-0.06014725126834591</v>
       </c>
       <c r="C61">
-        <v>-0.1277888594522802</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.1257456614231112</v>
+      </c>
+      <c r="D61">
+        <v>0.0234739006558405</v>
+      </c>
+      <c r="E61">
+        <v>-0.08177835159185692</v>
+      </c>
+      <c r="F61">
+        <v>0.01820973985265868</v>
+      </c>
+      <c r="G61">
+        <v>0.02521447994922252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1693931810596263</v>
+        <v>-0.1657159904252042</v>
       </c>
       <c r="C62">
-        <v>0.005868761953731975</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.005009646539067983</v>
+      </c>
+      <c r="D62">
+        <v>0.01888582101704771</v>
+      </c>
+      <c r="E62">
+        <v>0.15066762156183</v>
+      </c>
+      <c r="F62">
+        <v>0.09348110972717572</v>
+      </c>
+      <c r="G62">
+        <v>-0.03789586005717833</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.03942346916915271</v>
+        <v>-0.04214942690220189</v>
       </c>
       <c r="C63">
-        <v>-0.0779914035113108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08138662045913234</v>
+      </c>
+      <c r="D63">
+        <v>0.01619286464920964</v>
+      </c>
+      <c r="E63">
+        <v>-0.0439846990601598</v>
+      </c>
+      <c r="F63">
+        <v>-0.01173988903227121</v>
+      </c>
+      <c r="G63">
+        <v>-0.02241586418214642</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1122640669045491</v>
+        <v>-0.1098395870611525</v>
       </c>
       <c r="C64">
-        <v>-0.05411727206080378</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.05865453561713399</v>
+      </c>
+      <c r="D64">
+        <v>0.02316322330932407</v>
+      </c>
+      <c r="E64">
+        <v>0.03988791149470126</v>
+      </c>
+      <c r="F64">
+        <v>-0.007061828852531457</v>
+      </c>
+      <c r="G64">
+        <v>0.01232774279931985</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1610156468973909</v>
+        <v>-0.1626550725175319</v>
       </c>
       <c r="C65">
-        <v>0.06133552228819417</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04933050283140779</v>
+      </c>
+      <c r="D65">
+        <v>0.06535323770954911</v>
+      </c>
+      <c r="E65">
+        <v>0.02293178123853337</v>
+      </c>
+      <c r="F65">
+        <v>0.05047495082125693</v>
+      </c>
+      <c r="G65">
+        <v>-0.02372042993931063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0959098959112612</v>
+        <v>-0.09142970640672801</v>
       </c>
       <c r="C66">
-        <v>-0.1326505435882724</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1315045445417833</v>
+      </c>
+      <c r="D66">
+        <v>0.02727623586148268</v>
+      </c>
+      <c r="E66">
+        <v>-0.09912158232881145</v>
+      </c>
+      <c r="F66">
+        <v>0.005489414774817261</v>
+      </c>
+      <c r="G66">
+        <v>0.005045215902017309</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05496593511839934</v>
+        <v>-0.04789744767143213</v>
       </c>
       <c r="C67">
-        <v>-0.09416776822108913</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.08535768925471787</v>
+      </c>
+      <c r="D67">
+        <v>-0.07162760913756673</v>
+      </c>
+      <c r="E67">
+        <v>0.05096087928341699</v>
+      </c>
+      <c r="F67">
+        <v>0.04208052555284032</v>
+      </c>
+      <c r="G67">
+        <v>-0.05973105913396193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1416409933620324</v>
+        <v>-0.1440350652732683</v>
       </c>
       <c r="C68">
-        <v>0.2519662043792037</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2513194067719465</v>
+      </c>
+      <c r="D68">
+        <v>0.0004386302756774934</v>
+      </c>
+      <c r="E68">
+        <v>-0.1487338314609781</v>
+      </c>
+      <c r="F68">
+        <v>-0.03273087999873883</v>
+      </c>
+      <c r="G68">
+        <v>0.07284253715331655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0407511569354943</v>
+        <v>-0.03913396683330572</v>
       </c>
       <c r="C69">
-        <v>-0.01835027530648451</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.02024411618891219</v>
+      </c>
+      <c r="D69">
+        <v>-0.01303750796750815</v>
+      </c>
+      <c r="E69">
+        <v>0.06072714270642764</v>
+      </c>
+      <c r="F69">
+        <v>0.02481621924529615</v>
+      </c>
+      <c r="G69">
+        <v>-0.06654999132148223</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07498027653967534</v>
+        <v>-0.07278772241801124</v>
       </c>
       <c r="C70">
-        <v>-0.09766921903730286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.09576805388198394</v>
+      </c>
+      <c r="D70">
+        <v>-0.5323683439655542</v>
+      </c>
+      <c r="E70">
+        <v>0.2679333951662405</v>
+      </c>
+      <c r="F70">
+        <v>0.1527831566618391</v>
+      </c>
+      <c r="G70">
+        <v>0.5078508031259088</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1665874664774802</v>
+        <v>-0.1694598504685364</v>
       </c>
       <c r="C71">
-        <v>0.2594366734228639</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.2566578741460838</v>
+      </c>
+      <c r="D71">
+        <v>-0.004502176362421728</v>
+      </c>
+      <c r="E71">
+        <v>-0.1576805039502913</v>
+      </c>
+      <c r="F71">
+        <v>-0.04358523429780822</v>
+      </c>
+      <c r="G71">
+        <v>0.08546140873722437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.146485159847094</v>
+        <v>-0.1505189965314579</v>
       </c>
       <c r="C72">
-        <v>-0.00948775756901366</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.009302131451736233</v>
+      </c>
+      <c r="D72">
+        <v>0.0406991738620364</v>
+      </c>
+      <c r="E72">
+        <v>0.05020302095200763</v>
+      </c>
+      <c r="F72">
+        <v>0.05933547141229909</v>
+      </c>
+      <c r="G72">
+        <v>-0.08624879603407164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1911682255159635</v>
+        <v>-0.1988634137211296</v>
       </c>
       <c r="C73">
-        <v>-0.02811750770401568</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.03347249561187968</v>
+      </c>
+      <c r="D73">
+        <v>0.03922377855157187</v>
+      </c>
+      <c r="E73">
+        <v>0.1261438165550127</v>
+      </c>
+      <c r="F73">
+        <v>0.03423393024822306</v>
+      </c>
+      <c r="G73">
+        <v>-0.03944859354123224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08806396574988304</v>
+        <v>-0.08676478317722223</v>
       </c>
       <c r="C74">
-        <v>-0.003363606405186385</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01042616725598224</v>
+      </c>
+      <c r="D74">
+        <v>0.06298523436993378</v>
+      </c>
+      <c r="E74">
+        <v>0.08712543536356886</v>
+      </c>
+      <c r="F74">
+        <v>0.03268004349774441</v>
+      </c>
+      <c r="G74">
+        <v>-0.04201166099424274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1233308321646142</v>
+        <v>-0.1158439731044327</v>
       </c>
       <c r="C75">
-        <v>-0.02573883346275605</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.0269560069684172</v>
+      </c>
+      <c r="D75">
+        <v>0.0199062870659776</v>
+      </c>
+      <c r="E75">
+        <v>0.09641172393884472</v>
+      </c>
+      <c r="F75">
+        <v>0.09982507803940072</v>
+      </c>
+      <c r="G75">
+        <v>-0.07425240389069732</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07836656197254521</v>
+        <v>-0.08816922971058187</v>
       </c>
       <c r="C77">
-        <v>-0.1157643916521087</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.1200325303294431</v>
+      </c>
+      <c r="D77">
+        <v>0.08649083556066629</v>
+      </c>
+      <c r="E77">
+        <v>-0.07669026279918734</v>
+      </c>
+      <c r="F77">
+        <v>0.07914796034646036</v>
+      </c>
+      <c r="G77">
+        <v>0.135045160929947</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.07944733487435657</v>
+        <v>-0.08575156019485455</v>
       </c>
       <c r="C78">
-        <v>-0.1271361011976226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1259524922967436</v>
+      </c>
+      <c r="D78">
+        <v>0.06653604280649322</v>
+      </c>
+      <c r="E78">
+        <v>-0.08368722832708433</v>
+      </c>
+      <c r="F78">
+        <v>0.1087711292775616</v>
+      </c>
+      <c r="G78">
+        <v>0.02001145489529415</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1677288764104658</v>
+        <v>-0.163304144725554</v>
       </c>
       <c r="C79">
-        <v>-0.02040042282030218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02154792835530257</v>
+      </c>
+      <c r="D79">
+        <v>0.009964585717215266</v>
+      </c>
+      <c r="E79">
+        <v>0.08030768706467273</v>
+      </c>
+      <c r="F79">
+        <v>0.08291633265222412</v>
+      </c>
+      <c r="G79">
+        <v>-0.04926608279322732</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07930345751528289</v>
+        <v>-0.07544659620534237</v>
       </c>
       <c r="C80">
-        <v>-0.08040846838605448</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.07528845419724776</v>
+      </c>
+      <c r="D80">
+        <v>-0.0006462322874561952</v>
+      </c>
+      <c r="E80">
+        <v>-0.09552685226545884</v>
+      </c>
+      <c r="F80">
+        <v>-0.0652535754816839</v>
+      </c>
+      <c r="G80">
+        <v>-0.03867579603020392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1122111406343702</v>
+        <v>-0.1058881887558356</v>
       </c>
       <c r="C81">
-        <v>0.01421175079738859</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.012174610031888</v>
+      </c>
+      <c r="D81">
+        <v>-0.008732598399737423</v>
+      </c>
+      <c r="E81">
+        <v>0.1027969970922852</v>
+      </c>
+      <c r="F81">
+        <v>0.07476989557541464</v>
+      </c>
+      <c r="G81">
+        <v>-0.1069614301100609</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1625319686932362</v>
+        <v>-0.1576254520279046</v>
       </c>
       <c r="C82">
-        <v>0.01359259465193199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.009648406515061674</v>
+      </c>
+      <c r="D82">
+        <v>0.07350735240235115</v>
+      </c>
+      <c r="E82">
+        <v>0.1466752344284905</v>
+      </c>
+      <c r="F82">
+        <v>0.0301362180335636</v>
+      </c>
+      <c r="G82">
+        <v>-0.05964450538385931</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05483591697426555</v>
+        <v>-0.05097324755254254</v>
       </c>
       <c r="C83">
-        <v>-0.06882091650998498</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.06300910960547057</v>
+      </c>
+      <c r="D83">
+        <v>-0.01160733370273597</v>
+      </c>
+      <c r="E83">
+        <v>-0.001613048714978687</v>
+      </c>
+      <c r="F83">
+        <v>-0.004297712883183567</v>
+      </c>
+      <c r="G83">
+        <v>0.02856366148988715</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04717537795988253</v>
+        <v>-0.04594181611601286</v>
       </c>
       <c r="C84">
-        <v>-0.07861258748018621</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.07552876433054405</v>
+      </c>
+      <c r="D84">
+        <v>-0.02003135255319815</v>
+      </c>
+      <c r="E84">
+        <v>0.01038886764335729</v>
+      </c>
+      <c r="F84">
+        <v>0.01796510715337516</v>
+      </c>
+      <c r="G84">
+        <v>0.01520276828436213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1391571461001218</v>
+        <v>-0.1345716688836655</v>
       </c>
       <c r="C85">
-        <v>-0.00698544930447278</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.008997170100879158</v>
+      </c>
+      <c r="D85">
+        <v>0.0709407057044754</v>
+      </c>
+      <c r="E85">
+        <v>0.07936689168144312</v>
+      </c>
+      <c r="F85">
+        <v>0.08446924691774689</v>
+      </c>
+      <c r="G85">
+        <v>-0.06570345275825708</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.08272954480091356</v>
+        <v>-0.08269883972624989</v>
       </c>
       <c r="C86">
-        <v>-0.1526421084868748</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.1544731207634945</v>
+      </c>
+      <c r="D86">
+        <v>-0.6177346582720168</v>
+      </c>
+      <c r="E86">
+        <v>-0.449713811373478</v>
+      </c>
+      <c r="F86">
+        <v>0.1765407833936867</v>
+      </c>
+      <c r="G86">
+        <v>-0.4283113137411257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.09083134036393462</v>
+        <v>-0.08670128389824752</v>
       </c>
       <c r="C87">
-        <v>-0.1002884014930244</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.09978914202366769</v>
+      </c>
+      <c r="D87">
+        <v>0.1167024775701642</v>
+      </c>
+      <c r="E87">
+        <v>-0.1198749756902037</v>
+      </c>
+      <c r="F87">
+        <v>-0.1414894672601905</v>
+      </c>
+      <c r="G87">
+        <v>0.1280270555721542</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06031472178391869</v>
+        <v>-0.05967264931385519</v>
       </c>
       <c r="C88">
-        <v>-0.06199355770557288</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06206054566820723</v>
+      </c>
+      <c r="D88">
+        <v>0.004410916622384493</v>
+      </c>
+      <c r="E88">
+        <v>0.02897581683560646</v>
+      </c>
+      <c r="F88">
+        <v>0.01765446250963725</v>
+      </c>
+      <c r="G88">
+        <v>-0.005935864460866745</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1514485073917671</v>
+        <v>-0.1510690766251142</v>
       </c>
       <c r="C89">
-        <v>0.2007507506225375</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2084722000201423</v>
+      </c>
+      <c r="D89">
+        <v>0.01249954052851423</v>
+      </c>
+      <c r="E89">
+        <v>-0.1120017379926119</v>
+      </c>
+      <c r="F89">
+        <v>-0.04598430308175256</v>
+      </c>
+      <c r="G89">
+        <v>0.04447235107124722</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1831452757176216</v>
+        <v>-0.1870215238727008</v>
       </c>
       <c r="C90">
-        <v>0.2326425602594107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.2355080680256109</v>
+      </c>
+      <c r="D90">
+        <v>-0.002880027836545878</v>
+      </c>
+      <c r="E90">
+        <v>-0.1881259117761058</v>
+      </c>
+      <c r="F90">
+        <v>-0.07921698367805005</v>
+      </c>
+      <c r="G90">
+        <v>0.09668640163863323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1256158372503863</v>
+        <v>-0.1197753502548852</v>
       </c>
       <c r="C91">
-        <v>0.01967218280765264</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01761542870606304</v>
+      </c>
+      <c r="D91">
+        <v>-0.03475907993352322</v>
+      </c>
+      <c r="E91">
+        <v>0.1352738016207601</v>
+      </c>
+      <c r="F91">
+        <v>0.08008931818761508</v>
+      </c>
+      <c r="G91">
+        <v>-0.1303977491765454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1744096642529307</v>
+        <v>-0.1765353340980856</v>
       </c>
       <c r="C92">
-        <v>0.2665867116261025</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.2757664150127197</v>
+      </c>
+      <c r="D92">
+        <v>-0.002794178234480096</v>
+      </c>
+      <c r="E92">
+        <v>-0.2149103153405339</v>
+      </c>
+      <c r="F92">
+        <v>0.01123528442167368</v>
+      </c>
+      <c r="G92">
+        <v>0.0780501656318707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1784114179951374</v>
+        <v>-0.1860827597827761</v>
       </c>
       <c r="C93">
-        <v>0.2251192821322035</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.2289277522726656</v>
+      </c>
+      <c r="D93">
+        <v>-0.006222044376869836</v>
+      </c>
+      <c r="E93">
+        <v>-0.1087755486454003</v>
+      </c>
+      <c r="F93">
+        <v>0.02658092278928043</v>
+      </c>
+      <c r="G93">
+        <v>0.06561991518996502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1190797138017877</v>
+        <v>-0.1136014813131514</v>
       </c>
       <c r="C94">
-        <v>-0.0364169131480157</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03658738608682877</v>
+      </c>
+      <c r="D94">
+        <v>0.01896557587432114</v>
+      </c>
+      <c r="E94">
+        <v>0.09370489260151485</v>
+      </c>
+      <c r="F94">
+        <v>0.09598871772162612</v>
+      </c>
+      <c r="G94">
+        <v>-0.07158478379708337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1186434782677744</v>
+        <v>-0.1187543211185586</v>
       </c>
       <c r="C95">
-        <v>-0.105990442213388</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.1151566079970231</v>
+      </c>
+      <c r="D95">
+        <v>-0.004230121196256756</v>
+      </c>
+      <c r="E95">
+        <v>-0.07167455612615503</v>
+      </c>
+      <c r="F95">
+        <v>0.01870277482969308</v>
+      </c>
+      <c r="G95">
+        <v>0.007371485657494576</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1167981792621605</v>
+        <v>-0.1148241268871627</v>
       </c>
       <c r="C96">
-        <v>-0.1278903473655894</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1310733735624649</v>
+      </c>
+      <c r="D96">
+        <v>-0.01523792015079377</v>
+      </c>
+      <c r="E96">
+        <v>0.05356653181086473</v>
+      </c>
+      <c r="F96">
+        <v>0.01811840745878886</v>
+      </c>
+      <c r="G96">
+        <v>0.131165842480204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1972125033018841</v>
+        <v>-0.2012281109398115</v>
       </c>
       <c r="C97">
-        <v>-0.01759613765918983</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.008968739911476084</v>
+      </c>
+      <c r="D97">
+        <v>-0.1800381551022662</v>
+      </c>
+      <c r="E97">
+        <v>0.2536522667338026</v>
+      </c>
+      <c r="F97">
+        <v>-0.7186628389128119</v>
+      </c>
+      <c r="G97">
+        <v>-0.3839537932480416</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1983297727272392</v>
+        <v>-0.2048264324400484</v>
       </c>
       <c r="C98">
-        <v>-0.02512889803144624</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.02808070778850354</v>
+      </c>
+      <c r="D98">
+        <v>-0.07025559020068953</v>
+      </c>
+      <c r="E98">
+        <v>0.07212177248258703</v>
+      </c>
+      <c r="F98">
+        <v>-0.09250310230599695</v>
+      </c>
+      <c r="G98">
+        <v>0.1260975914951095</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05290123940263156</v>
+        <v>-0.05286536480337232</v>
       </c>
       <c r="C99">
-        <v>-0.06324057557378572</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.06250464871264756</v>
+      </c>
+      <c r="D99">
+        <v>-0.002477755272437241</v>
+      </c>
+      <c r="E99">
+        <v>-0.03692209283255329</v>
+      </c>
+      <c r="F99">
+        <v>-0.02459833888955549</v>
+      </c>
+      <c r="G99">
+        <v>0.007820299553870286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.09869262598041224</v>
+        <v>-0.09482545436008895</v>
       </c>
       <c r="C100">
-        <v>-0.3096177098157282</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.2929186703290021</v>
+      </c>
+      <c r="D100">
+        <v>-0.1250407526286069</v>
+      </c>
+      <c r="E100">
+        <v>-0.1191282360060554</v>
+      </c>
+      <c r="F100">
+        <v>-0.4559239592418602</v>
+      </c>
+      <c r="G100">
+        <v>0.3650062577373717</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02506403053783726</v>
+        <v>-0.02690719303412223</v>
       </c>
       <c r="C101">
-        <v>-0.05439938032578745</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.05235896833712934</v>
+      </c>
+      <c r="D101">
+        <v>0.005505597498021157</v>
+      </c>
+      <c r="E101">
+        <v>-0.06453547625692459</v>
+      </c>
+      <c r="F101">
+        <v>0.01372354251828137</v>
+      </c>
+      <c r="G101">
+        <v>-0.004406605855837168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
